--- a/Retailers Ledger/WALIDAD.xlsx
+++ b/Retailers Ledger/WALIDAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ALL THE BEST COMM-(661096390)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
   <si>
     <t>ALL THE BEST COMMUNICATION-(661096390)</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Signature</t>
   </si>
   <si>
+    <t>Digital</t>
+  </si>
+  <si>
     <t>PRAVEEN ELECTRONICS-(660831267)</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
   </si>
   <si>
     <t>PhonePe</t>
-  </si>
-  <si>
-    <t>Digital</t>
   </si>
   <si>
     <t>PAYAL COMMNICATION-(661644712)</t>
@@ -114,9 +114,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -134,8 +134,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,22 +150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,23 +174,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,23 +242,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,30 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +269,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -305,13 +305,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,169 +419,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,15 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +510,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +553,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,8 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,21 +596,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,134 +619,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,9 +778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1129,15 +1126,15 @@
     <col min="5" max="5" width="16.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="16382" width="9.14285714285714" style="1"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="14"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:8">
       <c r="A2" s="9" t="s">
@@ -1215,17 +1212,17 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" spans="1:5">
+    <row r="7" s="13" customFormat="1" spans="1:5">
       <c r="A7" s="10">
         <v>44173</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>1000</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1464,13 +1461,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1544,6 +1541,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="6">
+        <v>44176</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -1557,10 +1568,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1575,11 +1586,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -1717,12 +1728,39 @@
       <c r="B11" s="3">
         <v>3120</v>
       </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10">
+        <v>44176</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10">
+        <v>44176</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1738,7 +1776,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -1756,11 +1794,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -1931,6 +1969,20 @@
       </c>
       <c r="E13" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:5">
+      <c r="A14" s="10">
+        <v>44176</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1964,11 +2016,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2102,11 +2154,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2254,11 +2306,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2313,7 +2365,7 @@
         <v>3000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2355,7 +2407,7 @@
         <v>3000</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2406,11 +2458,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2543,7 +2595,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -2559,11 +2611,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2632,7 +2684,7 @@
         <v>5000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -2660,7 +2712,7 @@
         <v>3000</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2679,30 +2731,30 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="11"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2795,14 +2847,28 @@
       <c r="A8" s="10">
         <v>44175</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <v>3000</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>44176</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Retailers Ledger/WALIDAD.xlsx
+++ b/Retailers Ledger/WALIDAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ALL THE BEST COMM-(661096390)" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Kaler Electonics" sheetId="11" r:id="rId10"/>
     <sheet name="Bhumika Electroncs" sheetId="12" r:id="rId11"/>
     <sheet name="SONU PHONEX-(661752239)" sheetId="13" r:id="rId12"/>
+    <sheet name="SANTU KIRANA STORE-(661752211)" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="30">
   <si>
     <t>ALL THE BEST COMMUNICATION-(661096390)</t>
   </si>
@@ -96,6 +97,9 @@
     <t>CHANDAN TELECOM-(661644693)</t>
   </si>
   <si>
+    <t>manual</t>
+  </si>
+  <si>
     <t>ujjwal pustak bhandar-(660849999)</t>
   </si>
   <si>
@@ -107,6 +111,12 @@
   <si>
     <t>SONU PHONEX-(661752239)</t>
   </si>
+  <si>
+    <t>SANTU KIRANA STORE-(661752211)</t>
+  </si>
+  <si>
+    <t>G Pay</t>
+  </si>
 </sst>
 </file>
 
@@ -115,9 +125,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -136,7 +146,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +174,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -158,8 +189,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +221,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -189,14 +252,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,69 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +345,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +423,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,145 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +509,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +525,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +549,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,43 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,134 +629,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +791,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1114,7 +1127,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1126,15 +1139,15 @@
     <col min="5" max="5" width="16.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="16382" width="9.14285714285714" style="1"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="13"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:8">
       <c r="A2" s="9" t="s">
@@ -1180,7 +1193,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1194,7 +1208,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E30" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1208,21 +1223,23 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" spans="1:5">
+    <row r="7" s="14" customFormat="1" spans="1:5">
       <c r="A7" s="10">
         <v>44173</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>1000</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1236,7 +1253,8 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1250,33 +1268,143 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1"/>
-    <row r="13" s="3" customFormat="1"/>
-    <row r="14" s="3" customFormat="1"/>
-    <row r="15" s="3" customFormat="1"/>
-    <row r="16" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
-    <row r="22" s="3" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="3" customFormat="1"/>
-    <row r="27" s="3" customFormat="1"/>
-    <row r="28" s="3" customFormat="1"/>
-    <row r="29" s="3" customFormat="1"/>
-    <row r="30" s="3" customFormat="1"/>
-    <row r="31" s="1" customFormat="1" spans="1:1">
+    <row r="10" s="1" customFormat="1" spans="5:5">
+      <c r="E10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="5:5">
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="5:5">
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="5:5">
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" s="6"/>
+      <c r="E31" s="12" t="e">
+        <f>E30+B31/1.04-C31</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:1">
       <c r="A32" s="6"/>
@@ -1334,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1410,7 +1538,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1463,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1480,7 +1608,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1554,6 +1682,103 @@
       <c r="E6" s="3">
         <v>1000</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="6">
+        <v>44170</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="6">
+        <v>44170</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:4">
+      <c r="A6" s="6"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1568,10 +1793,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1633,7 +1858,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1647,7 +1873,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E39" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1661,7 +1888,8 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1675,7 +1903,8 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1689,7 +1918,8 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -1703,7 +1933,8 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1717,7 +1948,8 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1731,7 +1963,8 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
@@ -1745,7 +1978,8 @@
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1759,8 +1993,165 @@
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1776,10 +2167,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1841,7 +2232,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1855,7 +2247,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E34" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +2262,8 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1883,7 +2277,8 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1897,7 +2292,8 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1911,7 +2307,8 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -1925,7 +2322,8 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1939,7 +2337,8 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1953,7 +2352,8 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
@@ -1967,7 +2367,8 @@
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1981,8 +2382,129 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1998,13 +2520,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="32.1428571428571" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2016,11 +2538,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2063,7 +2585,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -2077,7 +2600,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E42" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2091,7 +2615,8 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -2105,7 +2630,8 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2119,8 +2645,213 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2136,10 +2867,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2154,11 +2885,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2201,7 +2932,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -2215,7 +2947,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E52" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2962,8 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2243,7 +2977,8 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2257,7 +2992,8 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2271,8 +3007,267 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2288,10 +3283,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2306,11 +3301,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2353,7 +3348,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>3000</v>
       </c>
     </row>
@@ -2367,7 +3363,8 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E32" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2381,7 +3378,8 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2395,7 +3393,8 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -2409,7 +3408,8 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2423,8 +3423,147 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2440,10 +3579,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2458,11 +3597,11 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2505,7 +3644,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -2519,7 +3659,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E31" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2533,7 +3674,8 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2547,7 +3689,8 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2561,7 +3704,8 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -2575,8 +3719,141 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2592,149 +3869,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
-        <v>44167</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3120</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
-        <v>44168</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2080</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
-        <v>44168</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
-        <v>44171</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3120</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10">
-        <v>44173</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2751,7 +3889,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2789,6 +3927,297 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
       <c r="A4" s="10">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
+        <v>44168</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E31" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
+        <v>44168</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
+        <v>44171</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>44173</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>44177</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44172</v>
       </c>
       <c r="B4" s="3">
@@ -2797,7 +4226,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -2811,7 +4241,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E36" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2825,7 +4256,8 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2839,7 +4271,8 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -2853,7 +4286,8 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2867,8 +4301,285 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="12" t="str">
+        <f t="shared" ref="E37:E55" si="1">IF(A37="","",E36+B37/1.04-C37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Retailers Ledger/WALIDAD.xlsx
+++ b/Retailers Ledger/WALIDAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ALL THE BEST COMM-(661096390)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="29">
   <si>
     <t>ALL THE BEST COMMUNICATION-(661096390)</t>
   </si>
@@ -97,9 +97,6 @@
     <t>CHANDAN TELECOM-(661644693)</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
     <t>ujjwal pustak bhandar-(660849999)</t>
   </si>
   <si>
@@ -123,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -142,51 +139,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -213,18 +165,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,18 +188,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,9 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +243,43 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +312,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,43 +390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,37 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,31 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,35 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,6 +517,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +569,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,9 +595,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,15 +608,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,130 +626,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,7 +772,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -787,13 +787,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1150,28 +1147,28 @@
       <c r="C1" s="15"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1184,7 +1181,7 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44168</v>
       </c>
       <c r="B4" s="3">
@@ -1193,13 +1190,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="C5" s="3">
@@ -1208,13 +1205,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E30" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44170</v>
       </c>
       <c r="B6" s="3">
@@ -1223,13 +1220,13 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44173</v>
       </c>
       <c r="C7" s="14">
@@ -1238,13 +1235,13 @@
       <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44173</v>
       </c>
       <c r="B8" s="1">
@@ -1253,13 +1250,13 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44175</v>
       </c>
       <c r="C9" s="1">
@@ -1268,140 +1265,140 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="5:5">
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="5:5">
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="5:5">
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="5:5">
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" s="6"/>
-      <c r="E31" s="12" t="e">
+      <c r="E31" s="7" t="e">
         <f>E30+B31/1.04-C31</f>
         <v>#VALUE!</v>
       </c>
@@ -1442,69 +1439,197 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11"/>
+      <c r="E4" s="7" t="str">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11"/>
+      <c r="E5" s="7" t="str">
+        <f t="shared" ref="E5:E25" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1519,61 +1644,223 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" s="7" t="str">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="7" t="str">
+        <f t="shared" ref="E5:E30" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1589,13 +1876,291 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="6">
+        <v>44171</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>44171</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E34" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="6">
+        <v>44176</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1643,7 +2208,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
       <c r="A4" s="6">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B4" s="3">
         <v>2080</v>
@@ -1651,114 +2216,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6">
-        <v>44171</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="6">
-        <v>44176</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="6">
-        <v>44170</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2080</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1770,15 +2229,164 @@
         <v>2000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E30" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
+    <row r="6" s="3" customFormat="1" spans="1:5">
       <c r="A6" s="6"/>
       <c r="D6" s="1"/>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1811,45 +2419,45 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44168</v>
       </c>
       <c r="B4" s="3">
@@ -1858,13 +2466,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="C5" s="3">
@@ -1873,13 +2481,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E39" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44169</v>
       </c>
       <c r="B6" s="3">
@@ -1888,13 +2496,13 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44170</v>
       </c>
       <c r="B7" s="3">
@@ -1903,13 +2511,13 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44171</v>
       </c>
       <c r="B8" s="3">
@@ -1918,13 +2526,13 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44172</v>
       </c>
       <c r="C9" s="3">
@@ -1933,13 +2541,13 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>44173</v>
       </c>
       <c r="B10" s="3">
@@ -1948,13 +2556,13 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:5">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>44176</v>
       </c>
       <c r="B11" s="3">
@@ -1963,13 +2571,13 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>44176</v>
       </c>
       <c r="C12" s="3">
@@ -1978,13 +2586,13 @@
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>44176</v>
       </c>
       <c r="C13" s="3">
@@ -1993,163 +2601,163 @@
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="12" t="str">
+      <c r="E35" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="12" t="str">
+      <c r="E36" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="12" t="str">
+      <c r="E37" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="12" t="str">
+      <c r="E39" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2185,45 +2793,45 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44168</v>
       </c>
       <c r="B4" s="3">
@@ -2232,13 +2840,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="C5" s="3">
@@ -2247,13 +2855,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E34" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44169</v>
       </c>
       <c r="B6" s="3">
@@ -2262,13 +2870,13 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44169</v>
       </c>
       <c r="B7" s="3">
@@ -2277,13 +2885,13 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44170</v>
       </c>
       <c r="B8" s="3">
@@ -2292,13 +2900,13 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44171</v>
       </c>
       <c r="B9" s="3">
@@ -2307,13 +2915,13 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>44172</v>
       </c>
       <c r="C10" s="3">
@@ -2322,13 +2930,13 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:5">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>44172</v>
       </c>
       <c r="B11" s="3">
@@ -2337,13 +2945,13 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>44174</v>
       </c>
       <c r="B12" s="3">
@@ -2352,13 +2960,13 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>44174</v>
       </c>
       <c r="C13" s="3">
@@ -2367,13 +2975,13 @@
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:5">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>44176</v>
       </c>
       <c r="B14" s="3">
@@ -2382,127 +2990,127 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2523,7 +3131,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2545,38 +3153,38 @@
       <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44168</v>
       </c>
       <c r="B4" s="3">
@@ -2585,13 +3193,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44169</v>
       </c>
       <c r="C5" s="3">
@@ -2600,13 +3208,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E42" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44171</v>
       </c>
       <c r="B6" s="3">
@@ -2615,13 +3223,13 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44172</v>
       </c>
       <c r="C7" s="3">
@@ -2630,13 +3238,13 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44174</v>
       </c>
       <c r="C8" s="3">
@@ -2645,211 +3253,220 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
+        <v>44177</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="12" t="str">
+      <c r="E35" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="12" t="str">
+      <c r="E36" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="12" t="str">
+      <c r="E37" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="12" t="str">
+      <c r="E39" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="12" t="str">
+      <c r="E40" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="12" t="str">
+      <c r="E41" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="12" t="str">
+      <c r="E42" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2892,25 +3509,25 @@
       <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2923,7 +3540,7 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44168</v>
       </c>
       <c r="B4" s="3">
@@ -2932,13 +3549,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="C5" s="3">
@@ -2947,13 +3564,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E52" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44172</v>
       </c>
       <c r="B6" s="3">
@@ -2962,13 +3579,13 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44172</v>
       </c>
       <c r="C7" s="3">
@@ -2977,13 +3594,13 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44174</v>
       </c>
       <c r="B8" s="3">
@@ -2992,13 +3609,13 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44175</v>
       </c>
       <c r="C9" s="3">
@@ -3007,265 +3624,265 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="12" t="str">
+      <c r="E35" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="12" t="str">
+      <c r="E36" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="12" t="str">
+      <c r="E37" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="12" t="str">
+      <c r="E39" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="12" t="str">
+      <c r="E40" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="12" t="str">
+      <c r="E41" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="12" t="str">
+      <c r="E42" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="12" t="str">
+      <c r="E43" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="12" t="str">
+      <c r="E44" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="12" t="str">
+      <c r="E45" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="12" t="str">
+      <c r="E46" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="12" t="str">
+      <c r="E47" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="12" t="str">
+      <c r="E48" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="12" t="str">
+      <c r="E49" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="12" t="str">
+      <c r="E50" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="12" t="str">
+      <c r="E51" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="12" t="str">
+      <c r="E52" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3286,7 +3903,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3308,25 +3925,25 @@
       <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3339,7 +3956,7 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44167</v>
       </c>
       <c r="B4" s="3">
@@ -3348,13 +3965,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>3000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="C5" s="3">
@@ -3363,13 +3980,13 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E32" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44169</v>
       </c>
       <c r="B6" s="3">
@@ -3378,13 +3995,13 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44171</v>
       </c>
       <c r="B7" s="3">
@@ -3393,13 +4010,13 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44172</v>
       </c>
       <c r="C8" s="3">
@@ -3408,13 +4025,13 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44174</v>
       </c>
       <c r="B9" s="3">
@@ -3423,145 +4040,154 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11">
+        <v>44177</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3604,25 +4230,25 @@
       <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3635,7 +4261,7 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44167</v>
       </c>
       <c r="B4" s="3">
@@ -3644,13 +4270,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="C5" s="3">
@@ -3659,13 +4285,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E31" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44170</v>
       </c>
       <c r="B6" s="3">
@@ -3674,13 +4300,13 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44172</v>
       </c>
       <c r="C7" s="3">
@@ -3689,13 +4315,13 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44173</v>
       </c>
       <c r="B8" s="3">
@@ -3704,13 +4330,13 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44174</v>
       </c>
       <c r="C9" s="3">
@@ -3719,139 +4345,139 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3888,45 +4514,45 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44167</v>
       </c>
       <c r="B4" s="3">
@@ -3935,13 +4561,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>3000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="B5" s="3">
@@ -3950,13 +4576,13 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E31" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>5000</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44168</v>
       </c>
       <c r="C6" s="3">
@@ -3965,13 +4591,13 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44171</v>
       </c>
       <c r="B7" s="3">
@@ -3980,13 +4606,13 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44173</v>
       </c>
       <c r="C8" s="3">
@@ -3995,154 +4621,154 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44177</v>
       </c>
       <c r="B9" s="3">
         <v>1040</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4162,8 +4788,8 @@
   <sheetPr/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4179,45 +4805,45 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44172</v>
       </c>
       <c r="B4" s="3">
@@ -4226,13 +4852,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44172</v>
       </c>
       <c r="C5" s="3">
@@ -4241,13 +4867,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E36" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44172</v>
       </c>
       <c r="B6" s="3">
@@ -4256,13 +4882,13 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44173</v>
       </c>
       <c r="B7" s="3">
@@ -4271,13 +4897,13 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44175</v>
       </c>
       <c r="C8" s="3">
@@ -4286,13 +4912,13 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44176</v>
       </c>
       <c r="B9" s="3">
@@ -4301,283 +4927,283 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="12" t="str">
+      <c r="E35" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="12" t="str">
+      <c r="E36" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="12" t="str">
+      <c r="E37" s="7" t="str">
         <f t="shared" ref="E37:E55" si="1">IF(A37="","",E36+B37/1.04-C37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="12" t="str">
+      <c r="E39" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="12" t="str">
+      <c r="E40" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="12" t="str">
+      <c r="E41" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="12" t="str">
+      <c r="E42" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="12" t="str">
+      <c r="E43" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="12" t="str">
+      <c r="E44" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="12" t="str">
+      <c r="E45" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="12" t="str">
+      <c r="E46" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="12" t="str">
+      <c r="E47" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="12" t="str">
+      <c r="E48" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="12" t="str">
+      <c r="E49" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="12" t="str">
+      <c r="E50" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="12" t="str">
+      <c r="E51" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="12" t="str">
+      <c r="E52" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="12" t="str">
+      <c r="E53" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="12" t="str">
+      <c r="E54" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="12" t="str">
+      <c r="E55" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/Retailers Ledger/WALIDAD.xlsx
+++ b/Retailers Ledger/WALIDAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="10" activeTab="12"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ALL THE BEST COMM-(661096390)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="29">
   <si>
     <t>ALL THE BEST COMMUNICATION-(661096390)</t>
   </si>
@@ -120,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,17 +141,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +173,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,22 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,16 +233,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,18 +247,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,10 +277,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,31 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +330,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +384,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,37 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,25 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,43 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,30 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,8 +524,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,30 +595,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -608,15 +608,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,130 +626,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1878,8 +1878,8 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1973,10 +1973,19 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>44176</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:5">
@@ -2156,7 +2165,7 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
